--- a/CSC3510 S2021/Lectures/NodeJSExpress2RESTFinal.xlsx
+++ b/CSC3510 S2021/Lectures/NodeJSExpress2RESTFinal.xlsx
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>s</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>npm</t>
   </si>
 </sst>
 </file>
@@ -1820,16 +1823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>492157</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>168903</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>63532</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>121278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1852,8 +1855,195 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5210175" y="5623560"/>
+          <a:off x="10877550" y="6147435"/>
           <a:ext cx="9912382" cy="5403843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4635709" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295775" y="809625"/>
+          <a:ext cx="4635709" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Body-parser is the Node.js body parsing middleware. It is responsible for parsing the incoming request bodies in a middleware before you handle it.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4635709" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="2638425"/>
+          <a:ext cx="4635709" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>body-parser extract the entire body portion of an incoming request stream and exposes it on req.body.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>npm install body-parser --save</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>427936</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>56863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="2905125"/>
+          <a:ext cx="5514286" cy="2295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4408,10 +4598,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6109365" cy="4160113"/>
     <xdr:sp macro="" textlink="">
@@ -4421,7 +4611,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="752475"/>
+          <a:off x="476250" y="676275"/>
           <a:ext cx="6109365" cy="4160113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13109,16 +13299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>532038</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>227238</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>75619</xdr:rowOff>
+      <xdr:rowOff>94669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13135,8 +13325,195 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4572000"/>
+          <a:off x="7010400" y="4591050"/>
           <a:ext cx="10895238" cy="4647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4635709" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="352425"/>
+          <a:ext cx="4635709" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Body-parser is the Node.js body parsing middleware. It is responsible for parsing the incoming request bodies in a middleware before you handle it.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4635709" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8753475" y="2181225"/>
+          <a:ext cx="4635709" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>body-parser extract the entire body portion of an incoming request stream and exposes it on req.body.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>npm install body-parser --save</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>475561</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11420475" y="2447925"/>
+          <a:ext cx="5514286" cy="2295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13413,7 +13790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -13449,8 +13826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13464,8 +13841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13479,8 +13856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13492,10 +13869,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9"/>
+  <dimension ref="A9:A130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13505,6 +13882,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
